--- a/Docs & Requirements/Orders/Fields_BusinessRules_7.02.2013 (version 3).xlsx
+++ b/Docs & Requirements/Orders/Fields_BusinessRules_7.02.2013 (version 3).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\faccts.net\Docs &amp; Requirements\Orders\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28160" yWindow="0" windowWidth="23120" windowHeight="20500" tabRatio="621"/>
+    <workbookView xWindow="28155" yWindow="0" windowWidth="23115" windowHeight="20505" tabRatio="621" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CH110" sheetId="1" r:id="rId1"/>
@@ -4730,6 +4735,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -5057,19 +5070,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
+    <col min="5" max="5" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="16" thickBot="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5086,7 +5099,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5103,7 +5116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -5120,7 +5133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -5137,7 +5150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -5154,7 +5167,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -5171,7 +5184,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -5188,7 +5201,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -5205,7 +5218,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -5222,7 +5235,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -5239,7 +5252,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -5256,7 +5269,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -5273,7 +5286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -5290,7 +5303,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -5307,7 +5320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -5324,7 +5337,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -5341,7 +5354,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -5358,7 +5371,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -5375,7 +5388,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -5392,7 +5405,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -5409,7 +5422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -5426,7 +5439,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -5443,7 +5456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -5460,7 +5473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -5477,7 +5490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -5494,7 +5507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -5511,7 +5524,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -5528,7 +5541,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -5545,7 +5558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -5562,7 +5575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -5579,7 +5592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -5596,7 +5609,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -5613,7 +5626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -5630,7 +5643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -5647,7 +5660,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -5664,7 +5677,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -5681,7 +5694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -5698,7 +5711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -5715,7 +5728,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -5732,7 +5745,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -5749,7 +5762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -5766,7 +5779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -5783,7 +5796,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -5797,7 +5810,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -5814,7 +5827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -5831,7 +5844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -5848,7 +5861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -5865,7 +5878,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -5882,7 +5895,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -5899,7 +5912,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -5916,7 +5929,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -5933,7 +5946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -5950,7 +5963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -5967,7 +5980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -5984,7 +5997,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -6001,7 +6014,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -6018,7 +6031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -6035,7 +6048,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>139</v>
       </c>
@@ -6052,7 +6065,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>139</v>
       </c>
@@ -6069,7 +6082,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -6086,7 +6099,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>139</v>
       </c>
@@ -6103,7 +6116,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>139</v>
       </c>
@@ -6120,7 +6133,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>139</v>
       </c>
@@ -6137,7 +6150,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>139</v>
       </c>
@@ -6154,7 +6167,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>139</v>
       </c>
@@ -6171,7 +6184,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -6188,10 +6201,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>139</v>
       </c>
@@ -6208,7 +6221,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>139</v>
       </c>
@@ -6225,7 +6238,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>139</v>
       </c>
@@ -6242,7 +6255,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>139</v>
       </c>
@@ -6259,7 +6272,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>139</v>
       </c>
@@ -6276,7 +6289,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>139</v>
       </c>
@@ -6293,7 +6306,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>139</v>
       </c>
@@ -6310,7 +6323,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>139</v>
       </c>
@@ -6327,7 +6340,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>139</v>
       </c>
@@ -6344,7 +6357,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>139</v>
       </c>
@@ -6361,7 +6374,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>139</v>
       </c>
@@ -6378,7 +6391,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>139</v>
       </c>
@@ -6395,7 +6408,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>139</v>
       </c>
@@ -6412,7 +6425,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>139</v>
       </c>
@@ -6429,7 +6442,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>139</v>
       </c>
@@ -6446,7 +6459,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>139</v>
       </c>
@@ -6463,7 +6476,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>139</v>
       </c>
@@ -6480,7 +6493,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>139</v>
       </c>
@@ -6497,7 +6510,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>139</v>
       </c>
@@ -6514,7 +6527,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>139</v>
       </c>
@@ -6531,7 +6544,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>139</v>
       </c>
@@ -6548,7 +6561,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>139</v>
       </c>
@@ -6565,7 +6578,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>139</v>
       </c>
@@ -6582,7 +6595,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>139</v>
       </c>
@@ -6599,7 +6612,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>139</v>
       </c>
@@ -6616,7 +6629,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>139</v>
       </c>
@@ -6633,7 +6646,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>139</v>
       </c>
@@ -6650,7 +6663,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>139</v>
       </c>
@@ -6667,7 +6680,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>139</v>
       </c>
@@ -6684,7 +6697,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>139</v>
       </c>
@@ -6701,7 +6714,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>139</v>
       </c>
@@ -6718,7 +6731,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>139</v>
       </c>
@@ -6735,7 +6748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>139</v>
       </c>
@@ -6752,7 +6765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>139</v>
       </c>
@@ -6769,7 +6782,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>139</v>
       </c>
@@ -6786,7 +6799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>139</v>
       </c>
@@ -6803,7 +6816,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>139</v>
       </c>
@@ -6820,7 +6833,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>139</v>
       </c>
@@ -6837,7 +6850,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>139</v>
       </c>
@@ -6854,7 +6867,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>139</v>
       </c>
@@ -6871,7 +6884,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>95</v>
       </c>
@@ -6888,7 +6901,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>95</v>
       </c>
@@ -6905,7 +6918,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>95</v>
       </c>
@@ -6922,7 +6935,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>95</v>
       </c>
@@ -6939,7 +6952,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>322</v>
       </c>
@@ -6959,20 +6972,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5" style="4" customWidth="1"/>
     <col min="2" max="3" width="34" style="4" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="4"/>
+    <col min="4" max="4" width="31.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="32.125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="16" thickBot="1">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -6989,7 +7002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -7006,7 +7019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -7023,7 +7036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -7040,7 +7053,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -7057,7 +7070,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -7074,7 +7087,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>508</v>
       </c>
@@ -7082,7 +7095,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>508</v>
       </c>
@@ -7090,7 +7103,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
         <v>508</v>
       </c>
@@ -7098,7 +7111,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>508</v>
       </c>
@@ -7106,7 +7119,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>521</v>
       </c>
@@ -7123,7 +7136,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>521</v>
       </c>
@@ -7140,7 +7153,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>521</v>
       </c>
@@ -7157,7 +7170,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>521</v>
       </c>
@@ -7174,7 +7187,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>521</v>
       </c>
@@ -7191,7 +7204,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>521</v>
       </c>
@@ -7208,7 +7221,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>521</v>
       </c>
@@ -7225,7 +7238,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>521</v>
       </c>
@@ -7242,7 +7255,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>521</v>
       </c>
@@ -7259,7 +7272,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>521</v>
       </c>
@@ -7276,7 +7289,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>521</v>
       </c>
@@ -7293,7 +7306,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>521</v>
       </c>
@@ -7310,7 +7323,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>521</v>
       </c>
@@ -7327,7 +7340,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>521</v>
       </c>
@@ -7344,7 +7357,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>521</v>
       </c>
@@ -7361,7 +7374,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>521</v>
       </c>
@@ -7378,7 +7391,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>521</v>
       </c>
@@ -7395,7 +7408,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>521</v>
       </c>
@@ -7412,7 +7425,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>521</v>
       </c>
@@ -7429,7 +7442,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>521</v>
       </c>
@@ -7446,7 +7459,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>521</v>
       </c>
@@ -7463,7 +7476,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>521</v>
       </c>
@@ -7480,7 +7493,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>521</v>
       </c>
@@ -7497,7 +7510,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>521</v>
       </c>
@@ -7514,7 +7527,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>521</v>
       </c>
@@ -7531,7 +7544,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>521</v>
       </c>
@@ -7548,7 +7561,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>521</v>
       </c>
@@ -7565,7 +7578,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>521</v>
       </c>
@@ -7582,7 +7595,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>521</v>
       </c>
@@ -7599,7 +7612,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>521</v>
       </c>
@@ -7616,7 +7629,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>521</v>
       </c>
@@ -7633,7 +7646,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>521</v>
       </c>
@@ -7650,7 +7663,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>521</v>
       </c>
@@ -7667,7 +7680,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>521</v>
       </c>
@@ -7684,7 +7697,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>521</v>
       </c>
@@ -7701,7 +7714,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>521</v>
       </c>
@@ -7718,7 +7731,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>521</v>
       </c>
@@ -7735,7 +7748,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>521</v>
       </c>
@@ -7752,7 +7765,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>521</v>
       </c>
@@ -7769,7 +7782,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>521</v>
       </c>
@@ -7786,7 +7799,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>521</v>
       </c>
@@ -7803,7 +7816,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>521</v>
       </c>
@@ -7820,7 +7833,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>521</v>
       </c>
@@ -7837,7 +7850,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>521</v>
       </c>
@@ -7854,7 +7867,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>521</v>
       </c>
@@ -7871,7 +7884,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>521</v>
       </c>
@@ -7888,7 +7901,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>521</v>
       </c>
@@ -7905,7 +7918,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>521</v>
       </c>
@@ -7922,7 +7935,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>521</v>
       </c>
@@ -7939,7 +7952,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>521</v>
       </c>
@@ -7956,11 +7969,11 @@
         <v>525</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>521</v>
       </c>
@@ -7977,7 +7990,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>521</v>
       </c>
@@ -7994,17 +8007,17 @@
         <v>525</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D76" s="6"/>
       <c r="E76" s="4" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
         <v>429</v>
       </c>
@@ -8028,16 +8041,16 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5" style="4" customWidth="1"/>
     <col min="2" max="3" width="34" style="4" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="4"/>
+    <col min="4" max="4" width="31.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="32.125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="16" thickBot="1">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -8054,7 +8067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -8071,7 +8084,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>619</v>
       </c>
@@ -8088,7 +8101,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>619</v>
       </c>
@@ -8105,7 +8118,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>619</v>
       </c>
@@ -8122,7 +8135,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -8139,7 +8152,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -8156,7 +8169,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -8173,7 +8186,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
@@ -8190,7 +8203,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>618</v>
       </c>
@@ -8198,7 +8211,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
         <v>618</v>
       </c>
@@ -8206,7 +8219,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
         <v>618</v>
       </c>
@@ -8214,7 +8227,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
         <v>618</v>
       </c>
@@ -8222,17 +8235,17 @@
         <v>518</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" s="6"/>
       <c r="E16" s="4" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>429</v>
       </c>
@@ -8252,19 +8265,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:E75"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
+    <col min="5" max="5" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="16" thickBot="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8281,7 +8294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8298,7 +8311,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -8315,7 +8328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -8332,7 +8345,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -8349,7 +8362,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -8366,7 +8379,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -8383,7 +8396,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -8400,7 +8413,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -8417,7 +8430,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -8434,7 +8447,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -8451,7 +8464,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -8468,7 +8481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -8485,7 +8498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -8502,7 +8515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -8519,7 +8532,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -8536,7 +8549,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -8553,7 +8566,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -8570,7 +8583,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -8587,7 +8600,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -8604,7 +8617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -8621,7 +8634,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -8638,7 +8651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -8655,7 +8668,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -8672,7 +8685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -8689,7 +8702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -8706,7 +8719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -8723,7 +8736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -8740,7 +8753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -8757,7 +8770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -8774,7 +8787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -8791,7 +8804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -8808,7 +8821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -8825,7 +8838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -8842,7 +8855,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -8859,7 +8872,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -8876,7 +8889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -8893,7 +8906,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -8910,7 +8923,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -8927,7 +8940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -8944,7 +8957,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -8961,7 +8974,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -8978,7 +8991,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -8992,7 +9005,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -9009,7 +9022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -9026,7 +9039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -9043,7 +9056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -9060,7 +9073,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -9077,7 +9090,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -9094,7 +9107,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -9111,7 +9124,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>140</v>
       </c>
@@ -9128,7 +9141,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>140</v>
       </c>
@@ -9145,7 +9158,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>140</v>
       </c>
@@ -9162,7 +9175,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>140</v>
       </c>
@@ -9179,7 +9192,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>140</v>
       </c>
@@ -9196,7 +9209,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>140</v>
       </c>
@@ -9213,7 +9226,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>140</v>
       </c>
@@ -9230,7 +9243,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>140</v>
       </c>
@@ -9247,7 +9260,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>140</v>
       </c>
@@ -9264,7 +9277,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>140</v>
       </c>
@@ -9281,10 +9294,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>174</v>
       </c>
@@ -9301,7 +9314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>174</v>
       </c>
@@ -9318,7 +9331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>174</v>
       </c>
@@ -9335,7 +9348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>174</v>
       </c>
@@ -9352,7 +9365,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>190</v>
       </c>
@@ -9369,7 +9382,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>190</v>
       </c>
@@ -9386,7 +9399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>190</v>
       </c>
@@ -9403,7 +9416,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>190</v>
       </c>
@@ -9420,7 +9433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -9437,7 +9450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -9454,7 +9467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>190</v>
       </c>
@@ -9471,7 +9484,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="3" customFormat="1">
+    <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>185</v>
       </c>
@@ -9491,7 +9504,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>185</v>
       </c>
@@ -9509,7 +9522,7 @@
       </c>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>185</v>
       </c>
@@ -9527,10 +9540,10 @@
       </c>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>140</v>
       </c>
@@ -9547,7 +9560,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>140</v>
       </c>
@@ -9564,7 +9577,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>140</v>
       </c>
@@ -9581,7 +9594,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>140</v>
       </c>
@@ -9598,7 +9611,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>140</v>
       </c>
@@ -9615,7 +9628,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>140</v>
       </c>
@@ -9632,7 +9645,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>140</v>
       </c>
@@ -9649,7 +9662,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>140</v>
       </c>
@@ -9666,7 +9679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>140</v>
       </c>
@@ -9683,7 +9696,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>140</v>
       </c>
@@ -9700,7 +9713,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>140</v>
       </c>
@@ -9717,7 +9730,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>140</v>
       </c>
@@ -9734,7 +9747,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>140</v>
       </c>
@@ -9751,7 +9764,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>140</v>
       </c>
@@ -9768,7 +9781,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>140</v>
       </c>
@@ -9785,7 +9798,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>140</v>
       </c>
@@ -9802,7 +9815,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>140</v>
       </c>
@@ -9819,7 +9832,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>140</v>
       </c>
@@ -9836,10 +9849,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>140</v>
       </c>
@@ -9856,7 +9869,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>200</v>
       </c>
@@ -9873,7 +9886,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>200</v>
       </c>
@@ -9890,7 +9903,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>200</v>
       </c>
@@ -9907,7 +9920,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>200</v>
       </c>
@@ -9924,7 +9937,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>200</v>
       </c>
@@ -9941,7 +9954,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>200</v>
       </c>
@@ -9958,7 +9971,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>200</v>
       </c>
@@ -9975,7 +9988,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>200</v>
       </c>
@@ -9992,7 +10005,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>200</v>
       </c>
@@ -10009,7 +10022,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>200</v>
       </c>
@@ -10026,7 +10039,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>200</v>
       </c>
@@ -10043,7 +10056,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>200</v>
       </c>
@@ -10060,7 +10073,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>200</v>
       </c>
@@ -10077,10 +10090,10 @@
         <v>211</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E114" s="2"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>140</v>
       </c>
@@ -10097,7 +10110,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>140</v>
       </c>
@@ -10114,7 +10127,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>140</v>
       </c>
@@ -10131,7 +10144,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>140</v>
       </c>
@@ -10148,7 +10161,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>140</v>
       </c>
@@ -10165,7 +10178,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>140</v>
       </c>
@@ -10182,7 +10195,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>140</v>
       </c>
@@ -10199,7 +10212,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>140</v>
       </c>
@@ -10216,7 +10229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>140</v>
       </c>
@@ -10233,7 +10246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>140</v>
       </c>
@@ -10250,7 +10263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>140</v>
       </c>
@@ -10267,10 +10280,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E127" s="2"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>140</v>
       </c>
@@ -10287,7 +10300,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>140</v>
       </c>
@@ -10304,7 +10317,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>140</v>
       </c>
@@ -10321,7 +10334,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>140</v>
       </c>
@@ -10338,14 +10351,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>140</v>
       </c>
@@ -10362,7 +10375,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>140</v>
       </c>
@@ -10379,7 +10392,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>140</v>
       </c>
@@ -10396,7 +10409,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>95</v>
       </c>
@@ -10413,7 +10426,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>95</v>
       </c>
@@ -10430,7 +10443,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>95</v>
       </c>
@@ -10447,7 +10460,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>95</v>
       </c>
@@ -10464,7 +10477,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>322</v>
       </c>
@@ -10484,19 +10497,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
     <col min="5" max="5" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="16" thickBot="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -10513,7 +10526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -10530,7 +10543,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -10547,7 +10560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -10564,7 +10577,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -10581,7 +10594,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -10598,7 +10611,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -10615,7 +10628,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -10632,7 +10645,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -10649,7 +10662,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -10666,7 +10679,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -10683,7 +10696,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -10700,7 +10713,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -10717,7 +10730,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -10734,7 +10747,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -10751,7 +10764,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -10768,7 +10781,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -10785,7 +10798,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -10802,7 +10815,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -10819,7 +10832,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -10836,7 +10849,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -10853,7 +10866,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -10870,7 +10883,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -10887,7 +10900,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -10904,7 +10917,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -10921,7 +10934,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -10938,7 +10951,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -10955,7 +10968,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -10972,7 +10985,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -10989,7 +11002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -11006,7 +11019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -11023,7 +11036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -11040,7 +11053,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -11057,7 +11070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -11074,7 +11087,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -11091,7 +11104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -11108,7 +11121,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -11125,7 +11138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -11142,7 +11155,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -11159,7 +11172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -11176,7 +11189,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -11193,7 +11206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -11210,7 +11223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -11227,7 +11240,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -11244,7 +11257,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -11261,7 +11274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -11278,7 +11291,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -11295,7 +11308,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -11312,7 +11325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -11329,7 +11342,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -11346,7 +11359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -11363,7 +11376,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -11380,7 +11393,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -11397,7 +11410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -11414,7 +11427,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -11431,7 +11444,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -11448,7 +11461,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -11465,7 +11478,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -11482,7 +11495,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -11499,7 +11512,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -11516,7 +11529,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>230</v>
       </c>
@@ -11533,7 +11546,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>230</v>
       </c>
@@ -11550,7 +11563,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>230</v>
       </c>
@@ -11567,7 +11580,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>230</v>
       </c>
@@ -11584,7 +11597,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>230</v>
       </c>
@@ -11601,7 +11614,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>230</v>
       </c>
@@ -11618,7 +11631,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>230</v>
       </c>
@@ -11635,7 +11648,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>230</v>
       </c>
@@ -11652,7 +11665,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>230</v>
       </c>
@@ -11669,10 +11682,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>230</v>
       </c>
@@ -11689,7 +11702,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>230</v>
       </c>
@@ -11706,7 +11719,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>230</v>
       </c>
@@ -11723,7 +11736,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>230</v>
       </c>
@@ -11740,7 +11753,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>230</v>
       </c>
@@ -11757,7 +11770,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>230</v>
       </c>
@@ -11774,7 +11787,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>230</v>
       </c>
@@ -11791,7 +11804,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>230</v>
       </c>
@@ -11808,7 +11821,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>230</v>
       </c>
@@ -11825,7 +11838,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>230</v>
       </c>
@@ -11842,7 +11855,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>230</v>
       </c>
@@ -11859,7 +11872,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>230</v>
       </c>
@@ -11876,7 +11889,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>230</v>
       </c>
@@ -11893,7 +11906,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>230</v>
       </c>
@@ -11910,7 +11923,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>230</v>
       </c>
@@ -11927,7 +11940,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>230</v>
       </c>
@@ -11944,7 +11957,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>230</v>
       </c>
@@ -11961,7 +11974,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>230</v>
       </c>
@@ -11978,7 +11991,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>230</v>
       </c>
@@ -11995,7 +12008,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>230</v>
       </c>
@@ -12012,7 +12025,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>230</v>
       </c>
@@ -12029,10 +12042,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>230</v>
       </c>
@@ -12049,7 +12062,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>230</v>
       </c>
@@ -12066,7 +12079,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>230</v>
       </c>
@@ -12083,7 +12096,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>230</v>
       </c>
@@ -12100,7 +12113,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>230</v>
       </c>
@@ -12117,7 +12130,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>230</v>
       </c>
@@ -12134,7 +12147,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>230</v>
       </c>
@@ -12151,7 +12164,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>238</v>
       </c>
@@ -12168,7 +12181,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>238</v>
       </c>
@@ -12185,7 +12198,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>230</v>
       </c>
@@ -12202,7 +12215,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>230</v>
       </c>
@@ -12219,7 +12232,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>230</v>
       </c>
@@ -12236,7 +12249,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>230</v>
       </c>
@@ -12253,7 +12266,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>230</v>
       </c>
@@ -12270,7 +12283,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>230</v>
       </c>
@@ -12287,7 +12300,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>230</v>
       </c>
@@ -12304,7 +12317,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>230</v>
       </c>
@@ -12321,7 +12334,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>230</v>
       </c>
@@ -12338,7 +12351,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>230</v>
       </c>
@@ -12355,7 +12368,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>230</v>
       </c>
@@ -12372,7 +12385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>230</v>
       </c>
@@ -12389,7 +12402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>230</v>
       </c>
@@ -12406,7 +12419,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>230</v>
       </c>
@@ -12423,7 +12436,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>230</v>
       </c>
@@ -12440,7 +12453,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>230</v>
       </c>
@@ -12457,7 +12470,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>230</v>
       </c>
@@ -12474,7 +12487,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>95</v>
       </c>
@@ -12491,7 +12504,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>95</v>
       </c>
@@ -12508,7 +12521,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>95</v>
       </c>
@@ -12525,7 +12538,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>95</v>
       </c>
@@ -12542,7 +12555,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>322</v>
       </c>
@@ -12566,15 +12579,15 @@
       <selection activeCell="A144" sqref="A144:E147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
+    <col min="5" max="5" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="16" thickBot="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -12591,7 +12604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12608,7 +12621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -12625,7 +12638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -12642,7 +12655,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -12659,7 +12672,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -12676,7 +12689,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -12693,7 +12706,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -12710,7 +12723,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -12727,7 +12740,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -12744,7 +12757,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -12761,7 +12774,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -12778,7 +12791,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -12795,7 +12808,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -12812,7 +12825,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -12829,7 +12842,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -12846,7 +12859,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -12863,7 +12876,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -12880,7 +12893,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -12897,7 +12910,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -12914,7 +12927,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -12931,7 +12944,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -12948,7 +12961,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -12965,7 +12978,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -12982,7 +12995,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -12999,7 +13012,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -13016,7 +13029,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -13033,7 +13046,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -13050,7 +13063,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -13067,7 +13080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -13084,7 +13097,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -13101,7 +13114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -13118,7 +13131,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -13135,7 +13148,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -13152,7 +13165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -13169,7 +13182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -13186,7 +13199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -13203,7 +13216,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -13220,7 +13233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -13237,7 +13250,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -13254,7 +13267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -13271,7 +13284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -13288,7 +13301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -13305,7 +13318,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -13322,7 +13335,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -13339,7 +13352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -13356,7 +13369,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -13373,7 +13386,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -13390,7 +13403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -13407,7 +13420,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -13424,7 +13437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -13441,7 +13454,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -13458,7 +13471,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -13475,7 +13488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -13492,7 +13505,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -13509,7 +13522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -13526,7 +13539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -13543,7 +13556,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -13560,7 +13573,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -13577,7 +13590,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>238</v>
       </c>
@@ -13594,7 +13607,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>238</v>
       </c>
@@ -13611,7 +13624,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>238</v>
       </c>
@@ -13628,7 +13641,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>238</v>
       </c>
@@ -13645,7 +13658,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>238</v>
       </c>
@@ -13662,7 +13675,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>238</v>
       </c>
@@ -13679,7 +13692,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>238</v>
       </c>
@@ -13696,7 +13709,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>238</v>
       </c>
@@ -13713,7 +13726,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>238</v>
       </c>
@@ -13730,7 +13743,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>238</v>
       </c>
@@ -13747,10 +13760,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>174</v>
       </c>
@@ -13767,7 +13780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>174</v>
       </c>
@@ -13784,7 +13797,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>174</v>
       </c>
@@ -13801,7 +13814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>174</v>
       </c>
@@ -13818,7 +13831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>174</v>
       </c>
@@ -13835,7 +13848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>190</v>
       </c>
@@ -13852,7 +13865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>190</v>
       </c>
@@ -13869,7 +13882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>190</v>
       </c>
@@ -13886,7 +13899,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>190</v>
       </c>
@@ -13903,7 +13916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>190</v>
       </c>
@@ -13920,7 +13933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -13937,7 +13950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -13954,7 +13967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -13971,7 +13984,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>190</v>
       </c>
@@ -13988,7 +14001,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="3" customFormat="1">
+    <row r="90" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>185</v>
       </c>
@@ -14008,7 +14021,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>185</v>
       </c>
@@ -14026,7 +14039,7 @@
       </c>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>185</v>
       </c>
@@ -14044,10 +14057,10 @@
       </c>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>238</v>
       </c>
@@ -14064,7 +14077,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>238</v>
       </c>
@@ -14081,7 +14094,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>238</v>
       </c>
@@ -14098,7 +14111,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>238</v>
       </c>
@@ -14115,7 +14128,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>238</v>
       </c>
@@ -14132,7 +14145,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>238</v>
       </c>
@@ -14149,7 +14162,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>238</v>
       </c>
@@ -14166,7 +14179,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>238</v>
       </c>
@@ -14183,7 +14196,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>238</v>
       </c>
@@ -14200,7 +14213,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>238</v>
       </c>
@@ -14217,7 +14230,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>238</v>
       </c>
@@ -14234,7 +14247,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>238</v>
       </c>
@@ -14251,7 +14264,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>238</v>
       </c>
@@ -14268,7 +14281,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>238</v>
       </c>
@@ -14285,7 +14298,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>238</v>
       </c>
@@ -14302,7 +14315,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>238</v>
       </c>
@@ -14319,7 +14332,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>238</v>
       </c>
@@ -14336,7 +14349,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>238</v>
       </c>
@@ -14353,13 +14366,13 @@
         <v>128</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E112" s="2"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>238</v>
       </c>
@@ -14376,7 +14389,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>238</v>
       </c>
@@ -14393,7 +14406,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>238</v>
       </c>
@@ -14410,7 +14423,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>238</v>
       </c>
@@ -14427,10 +14440,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E118" s="2"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>243</v>
       </c>
@@ -14447,7 +14460,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>243</v>
       </c>
@@ -14464,7 +14477,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>243</v>
       </c>
@@ -14481,7 +14494,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>243</v>
       </c>
@@ -14498,7 +14511,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>243</v>
       </c>
@@ -14515,7 +14528,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>243</v>
       </c>
@@ -14532,7 +14545,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>243</v>
       </c>
@@ -14549,7 +14562,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>243</v>
       </c>
@@ -14566,7 +14579,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>243</v>
       </c>
@@ -14583,7 +14596,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>243</v>
       </c>
@@ -14600,7 +14613,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>243</v>
       </c>
@@ -14617,10 +14630,10 @@
         <v>211</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>238</v>
       </c>
@@ -14637,7 +14650,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>238</v>
       </c>
@@ -14654,7 +14667,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>238</v>
       </c>
@@ -14671,7 +14684,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>238</v>
       </c>
@@ -14688,7 +14701,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>238</v>
       </c>
@@ -14705,7 +14718,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>238</v>
       </c>
@@ -14722,7 +14735,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>238</v>
       </c>
@@ -14739,7 +14752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>238</v>
       </c>
@@ -14756,7 +14769,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>238</v>
       </c>
@@ -14773,7 +14786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>238</v>
       </c>
@@ -14790,7 +14803,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>238</v>
       </c>
@@ -14807,10 +14820,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E143" s="2"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>238</v>
       </c>
@@ -14827,7 +14840,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>238</v>
       </c>
@@ -14844,7 +14857,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>238</v>
       </c>
@@ -14861,7 +14874,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>238</v>
       </c>
@@ -14878,10 +14891,10 @@
         <v>250</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>238</v>
       </c>
@@ -14898,7 +14911,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>238</v>
       </c>
@@ -14915,7 +14928,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>238</v>
       </c>
@@ -14932,7 +14945,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>95</v>
       </c>
@@ -14949,7 +14962,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>95</v>
       </c>
@@ -14966,7 +14979,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>95</v>
       </c>
@@ -14983,7 +14996,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>95</v>
       </c>
@@ -15000,7 +15013,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>322</v>
       </c>
@@ -15020,19 +15033,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:G71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
+    <col min="5" max="5" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="16" thickBot="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -15049,7 +15062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -15066,7 +15079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -15083,7 +15096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -15100,7 +15113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -15117,7 +15130,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -15134,7 +15147,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -15151,7 +15164,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -15168,7 +15181,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -15185,7 +15198,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -15202,7 +15215,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -15219,7 +15232,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -15236,7 +15249,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -15253,7 +15266,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -15270,7 +15283,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -15287,7 +15300,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -15304,7 +15317,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -15321,7 +15334,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -15338,7 +15351,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -15355,7 +15368,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -15372,7 +15385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -15389,7 +15402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -15406,7 +15419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -15423,7 +15436,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -15440,7 +15453,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -15457,7 +15470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -15474,7 +15487,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -15491,7 +15504,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -15508,7 +15521,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -15525,7 +15538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -15542,7 +15555,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -15559,7 +15572,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -15576,7 +15589,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -15593,7 +15606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -15610,7 +15623,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -15627,7 +15640,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -15644,7 +15657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -15661,7 +15674,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -15678,7 +15691,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -15695,7 +15708,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -15712,7 +15725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -15729,7 +15742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -15746,7 +15759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -15763,7 +15776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -15780,7 +15793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -15797,7 +15810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -15814,7 +15827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -15831,7 +15844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -15848,7 +15861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -15865,7 +15878,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -15882,7 +15895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -15899,7 +15912,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>253</v>
       </c>
@@ -15916,7 +15929,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>253</v>
       </c>
@@ -15933,7 +15946,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>253</v>
       </c>
@@ -15950,7 +15963,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>253</v>
       </c>
@@ -15967,7 +15980,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>253</v>
       </c>
@@ -15984,7 +15997,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>253</v>
       </c>
@@ -16001,7 +16014,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>253</v>
       </c>
@@ -16018,7 +16031,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>253</v>
       </c>
@@ -16035,7 +16048,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>253</v>
       </c>
@@ -16052,10 +16065,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>254</v>
       </c>
@@ -16072,7 +16085,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>254</v>
       </c>
@@ -16092,7 +16105,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>254</v>
       </c>
@@ -16109,7 +16122,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>254</v>
       </c>
@@ -16126,7 +16139,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>254</v>
       </c>
@@ -16143,7 +16156,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>254</v>
       </c>
@@ -16160,10 +16173,10 @@
         <v>260</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>253</v>
       </c>
@@ -16180,7 +16193,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>253</v>
       </c>
@@ -16197,7 +16210,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>253</v>
       </c>
@@ -16214,7 +16227,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>253</v>
       </c>
@@ -16231,7 +16244,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>253</v>
       </c>
@@ -16248,7 +16261,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>253</v>
       </c>
@@ -16265,7 +16278,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>253</v>
       </c>
@@ -16282,7 +16295,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>253</v>
       </c>
@@ -16299,10 +16312,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>253</v>
       </c>
@@ -16319,7 +16332,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>253</v>
       </c>
@@ -16336,7 +16349,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>253</v>
       </c>
@@ -16353,7 +16366,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>253</v>
       </c>
@@ -16370,7 +16383,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>253</v>
       </c>
@@ -16387,7 +16400,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>253</v>
       </c>
@@ -16404,7 +16417,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>253</v>
       </c>
@@ -16421,7 +16434,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>253</v>
       </c>
@@ -16438,7 +16451,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>253</v>
       </c>
@@ -16455,7 +16468,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>253</v>
       </c>
@@ -16472,7 +16485,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>253</v>
       </c>
@@ -16489,7 +16502,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>253</v>
       </c>
@@ -16506,10 +16519,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>253</v>
       </c>
@@ -16526,7 +16539,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>253</v>
       </c>
@@ -16543,7 +16556,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>253</v>
       </c>
@@ -16560,7 +16573,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>253</v>
       </c>
@@ -16577,10 +16590,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>253</v>
       </c>
@@ -16597,10 +16610,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E101" s="2"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>253</v>
       </c>
@@ -16617,7 +16630,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>253</v>
       </c>
@@ -16634,7 +16647,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>253</v>
       </c>
@@ -16651,10 +16664,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E105" s="2"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>253</v>
       </c>
@@ -16671,7 +16684,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>253</v>
       </c>
@@ -16688,7 +16701,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>253</v>
       </c>
@@ -16705,7 +16718,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>253</v>
       </c>
@@ -16722,7 +16735,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>253</v>
       </c>
@@ -16739,10 +16752,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>314</v>
       </c>
@@ -16759,7 +16772,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>314</v>
       </c>
@@ -16776,7 +16789,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>314</v>
       </c>
@@ -16793,7 +16806,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>313</v>
       </c>
@@ -16810,7 +16823,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>313</v>
       </c>
@@ -16827,7 +16840,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>313</v>
       </c>
@@ -16844,7 +16857,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>313</v>
       </c>
@@ -16861,10 +16874,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>313</v>
       </c>
@@ -16881,7 +16894,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>313</v>
       </c>
@@ -16898,7 +16911,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>313</v>
       </c>
@@ -16915,7 +16928,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>313</v>
       </c>
@@ -16932,7 +16945,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>313</v>
       </c>
@@ -16949,7 +16962,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>313</v>
       </c>
@@ -16966,7 +16979,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>313</v>
       </c>
@@ -16983,7 +16996,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>313</v>
       </c>
@@ -17000,7 +17013,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>313</v>
       </c>
@@ -17017,7 +17030,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>313</v>
       </c>
@@ -17034,7 +17047,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>313</v>
       </c>
@@ -17051,10 +17064,10 @@
         <v>304</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E131" s="2"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>313</v>
       </c>
@@ -17071,7 +17084,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>313</v>
       </c>
@@ -17088,7 +17101,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>313</v>
       </c>
@@ -17105,7 +17118,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>313</v>
       </c>
@@ -17122,7 +17135,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>313</v>
       </c>
@@ -17139,10 +17152,10 @@
         <v>318</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E137" s="2"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>253</v>
       </c>
@@ -17159,7 +17172,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>253</v>
       </c>
@@ -17176,7 +17189,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>253</v>
       </c>
@@ -17193,7 +17206,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>253</v>
       </c>
@@ -17210,7 +17223,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>253</v>
       </c>
@@ -17227,7 +17240,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>95</v>
       </c>
@@ -17244,7 +17257,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>95</v>
       </c>
@@ -17261,7 +17274,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>95</v>
       </c>
@@ -17278,7 +17291,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>95</v>
       </c>
@@ -17295,22 +17308,22 @@
         <v>155</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>322</v>
       </c>
@@ -17334,15 +17347,15 @@
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
+    <col min="5" max="5" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="16" thickBot="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -17359,7 +17372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -17376,7 +17389,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -17393,7 +17406,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -17410,7 +17423,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -17427,7 +17440,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -17444,7 +17457,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -17461,7 +17474,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -17478,7 +17491,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -17495,7 +17508,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -17512,7 +17525,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -17529,7 +17542,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -17546,7 +17559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -17563,7 +17576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -17580,7 +17593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -17597,7 +17610,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -17614,7 +17627,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -17631,7 +17644,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -17648,7 +17661,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -17665,7 +17678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -17682,7 +17695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -17699,7 +17712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -17716,7 +17729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -17733,7 +17746,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -17750,7 +17763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -17767,7 +17780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -17784,7 +17797,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -17801,7 +17814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -17818,7 +17831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -17835,7 +17848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -17852,7 +17865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -17869,7 +17882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -17886,7 +17899,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -17903,7 +17916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -17920,7 +17933,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -17937,7 +17950,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -17954,7 +17967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -17971,7 +17984,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -17988,7 +18001,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -18005,7 +18018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -18022,7 +18035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -18039,7 +18052,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -18056,7 +18069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -18073,7 +18086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -18090,7 +18103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -18107,7 +18120,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -18124,7 +18137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -18141,7 +18154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -18158,7 +18171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -18175,7 +18188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -18192,7 +18205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -18209,7 +18222,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>326</v>
       </c>
@@ -18226,7 +18239,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>326</v>
       </c>
@@ -18243,7 +18256,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>326</v>
       </c>
@@ -18260,7 +18273,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>326</v>
       </c>
@@ -18277,7 +18290,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>326</v>
       </c>
@@ -18294,7 +18307,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>174</v>
       </c>
@@ -18311,7 +18324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>174</v>
       </c>
@@ -18328,7 +18341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -18345,7 +18358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>190</v>
       </c>
@@ -18362,7 +18375,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -18379,7 +18392,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>190</v>
       </c>
@@ -18396,7 +18409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -18413,7 +18426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -18430,7 +18443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>326</v>
       </c>
@@ -18447,7 +18460,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>326</v>
       </c>
@@ -18464,7 +18477,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>326</v>
       </c>
@@ -18481,7 +18494,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>326</v>
       </c>
@@ -18498,7 +18511,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>326</v>
       </c>
@@ -18515,7 +18528,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>326</v>
       </c>
@@ -18532,10 +18545,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>326</v>
       </c>
@@ -18552,7 +18565,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>326</v>
       </c>
@@ -18569,7 +18582,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>326</v>
       </c>
@@ -18586,7 +18599,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>326</v>
       </c>
@@ -18603,7 +18616,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>326</v>
       </c>
@@ -18620,7 +18633,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>326</v>
       </c>
@@ -18637,10 +18650,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>326</v>
       </c>
@@ -18657,7 +18670,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>326</v>
       </c>
@@ -18674,7 +18687,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>326</v>
       </c>
@@ -18691,7 +18704,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>326</v>
       </c>
@@ -18708,7 +18721,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>326</v>
       </c>
@@ -18725,7 +18738,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>326</v>
       </c>
@@ -18742,7 +18755,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>326</v>
       </c>
@@ -18759,7 +18772,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>326</v>
       </c>
@@ -18776,7 +18789,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>326</v>
       </c>
@@ -18793,7 +18806,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>326</v>
       </c>
@@ -18810,10 +18823,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>326</v>
       </c>
@@ -18830,7 +18843,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>326</v>
       </c>
@@ -18847,7 +18860,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>326</v>
       </c>
@@ -18864,7 +18877,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>326</v>
       </c>
@@ -18881,10 +18894,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>326</v>
       </c>
@@ -18901,10 +18914,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E101" s="2"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>326</v>
       </c>
@@ -18921,10 +18934,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E103" s="2"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>326</v>
       </c>
@@ -18941,7 +18954,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>326</v>
       </c>
@@ -18958,7 +18971,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>326</v>
       </c>
@@ -18975,10 +18988,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E107" s="2"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>331</v>
       </c>
@@ -18995,7 +19008,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>331</v>
       </c>
@@ -19015,10 +19028,10 @@
         <v>332</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E110" s="2"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>333</v>
       </c>
@@ -19035,7 +19048,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>333</v>
       </c>
@@ -19052,10 +19065,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>333</v>
       </c>
@@ -19072,7 +19085,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>333</v>
       </c>
@@ -19089,7 +19102,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>333</v>
       </c>
@@ -19106,7 +19119,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>333</v>
       </c>
@@ -19123,7 +19136,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>333</v>
       </c>
@@ -19140,7 +19153,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>333</v>
       </c>
@@ -19157,7 +19170,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>333</v>
       </c>
@@ -19174,7 +19187,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>333</v>
       </c>
@@ -19191,7 +19204,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>333</v>
       </c>
@@ -19208,7 +19221,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>333</v>
       </c>
@@ -19225,7 +19238,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>333</v>
       </c>
@@ -19242,7 +19255,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>333</v>
       </c>
@@ -19259,7 +19272,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>333</v>
       </c>
@@ -19276,7 +19289,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>333</v>
       </c>
@@ -19293,10 +19306,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>333</v>
       </c>
@@ -19313,7 +19326,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>333</v>
       </c>
@@ -19330,7 +19343,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>333</v>
       </c>
@@ -19347,10 +19360,10 @@
         <v>318</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>345</v>
       </c>
@@ -19367,7 +19380,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>345</v>
       </c>
@@ -19384,10 +19397,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E135" s="2"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>333</v>
       </c>
@@ -19404,7 +19417,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>333</v>
       </c>
@@ -19421,7 +19434,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>333</v>
       </c>
@@ -19438,7 +19451,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>333</v>
       </c>
@@ -19455,7 +19468,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>333</v>
       </c>
@@ -19472,7 +19485,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>333</v>
       </c>
@@ -19489,10 +19502,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E142" s="2"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>254</v>
       </c>
@@ -19509,7 +19522,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>254</v>
       </c>
@@ -19529,7 +19542,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>254</v>
       </c>
@@ -19546,7 +19559,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>254</v>
       </c>
@@ -19563,7 +19576,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>254</v>
       </c>
@@ -19580,7 +19593,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>254</v>
       </c>
@@ -19597,10 +19610,10 @@
         <v>260</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>333</v>
       </c>
@@ -19617,7 +19630,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>333</v>
       </c>
@@ -19634,7 +19647,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>333</v>
       </c>
@@ -19651,7 +19664,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>333</v>
       </c>
@@ -19668,7 +19681,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>333</v>
       </c>
@@ -19685,7 +19698,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>333</v>
       </c>
@@ -19702,7 +19715,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>333</v>
       </c>
@@ -19719,7 +19732,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>333</v>
       </c>
@@ -19736,7 +19749,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>333</v>
       </c>
@@ -19753,7 +19766,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>333</v>
       </c>
@@ -19770,7 +19783,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>333</v>
       </c>
@@ -19787,7 +19800,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>333</v>
       </c>
@@ -19804,7 +19817,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>333</v>
       </c>
@@ -19821,7 +19834,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>333</v>
       </c>
@@ -19838,10 +19851,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>326</v>
       </c>
@@ -19858,10 +19871,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>326</v>
       </c>
@@ -19878,7 +19891,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>326</v>
       </c>
@@ -19895,12 +19908,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>326</v>
       </c>
@@ -19917,7 +19930,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>326</v>
       </c>
@@ -19934,7 +19947,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>326</v>
       </c>
@@ -19951,7 +19964,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>326</v>
       </c>
@@ -19968,12 +19981,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>392</v>
       </c>
@@ -19990,7 +20003,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>392</v>
       </c>
@@ -20010,7 +20023,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>392</v>
       </c>
@@ -20027,7 +20040,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>392</v>
       </c>
@@ -20044,7 +20057,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>392</v>
       </c>
@@ -20061,7 +20074,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>392</v>
       </c>
@@ -20078,7 +20091,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>392</v>
       </c>
@@ -20095,7 +20108,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>392</v>
       </c>
@@ -20112,7 +20125,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>392</v>
       </c>
@@ -20129,7 +20142,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>392</v>
       </c>
@@ -20146,7 +20159,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>95</v>
       </c>
@@ -20163,7 +20176,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>95</v>
       </c>
@@ -20180,7 +20193,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>95</v>
       </c>
@@ -20197,7 +20210,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>95</v>
       </c>
@@ -20214,42 +20227,42 @@
         <v>155</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="194" spans="2:2">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="195" spans="2:2">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="197" spans="2:2">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="198" spans="2:2">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="199" spans="2:2">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="200" spans="2:2">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="202" spans="2:2">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>368</v>
       </c>
@@ -20273,15 +20286,15 @@
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
+    <col min="5" max="5" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="16" thickBot="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -20298,7 +20311,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -20315,7 +20328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -20332,7 +20345,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -20349,7 +20362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -20366,7 +20379,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -20383,7 +20396,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -20400,7 +20413,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -20417,7 +20430,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -20434,7 +20447,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -20451,7 +20464,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -20468,7 +20481,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -20485,7 +20498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -20502,7 +20515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -20519,7 +20532,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -20536,7 +20549,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -20553,7 +20566,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -20570,7 +20583,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -20587,7 +20600,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -20604,7 +20617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -20621,7 +20634,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -20638,7 +20651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -20655,7 +20668,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -20672,7 +20685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>428</v>
       </c>
@@ -20689,7 +20702,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>95</v>
       </c>
@@ -20703,7 +20716,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>425</v>
       </c>
@@ -20720,7 +20733,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>426</v>
       </c>
@@ -20737,7 +20750,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>427</v>
       </c>
@@ -20754,7 +20767,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -20771,7 +20784,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -20788,7 +20801,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -20805,7 +20818,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -20822,7 +20835,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>429</v>
       </c>
@@ -20846,15 +20859,15 @@
       <selection activeCell="B29" sqref="B29:B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
+    <col min="5" max="5" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="16" thickBot="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -20871,7 +20884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -20888,7 +20901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -20905,7 +20918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -20922,7 +20935,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -20939,7 +20952,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -20956,7 +20969,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -20973,7 +20986,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -20990,7 +21003,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -21007,7 +21020,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -21024,7 +21037,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -21041,7 +21054,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -21058,7 +21071,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -21075,7 +21088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -21092,7 +21105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -21109,7 +21122,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -21126,7 +21139,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -21143,7 +21156,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -21160,7 +21173,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -21177,10 +21190,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>433</v>
       </c>
@@ -21197,7 +21210,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>433</v>
       </c>
@@ -21214,7 +21227,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>433</v>
       </c>
@@ -21231,7 +21244,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>433</v>
       </c>
@@ -21248,7 +21261,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>433</v>
       </c>
@@ -21265,10 +21278,10 @@
         <v>452</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>433</v>
       </c>
@@ -21285,7 +21298,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>433</v>
       </c>
@@ -21302,7 +21315,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>433</v>
       </c>
@@ -21319,7 +21332,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>433</v>
       </c>
@@ -21336,7 +21349,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -21353,7 +21366,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -21370,7 +21383,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -21387,10 +21400,10 @@
         <v>456</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>433</v>
       </c>
@@ -21407,7 +21420,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>433</v>
       </c>
@@ -21424,7 +21437,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>433</v>
       </c>
@@ -21441,7 +21454,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>433</v>
       </c>
@@ -21458,10 +21471,10 @@
         <v>452</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>433</v>
       </c>
@@ -21478,7 +21491,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>433</v>
       </c>
@@ -21495,7 +21508,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>433</v>
       </c>
@@ -21512,7 +21525,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>433</v>
       </c>
@@ -21529,7 +21542,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>433</v>
       </c>
@@ -21546,10 +21559,10 @@
         <v>452</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E47" s="2"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -21566,7 +21579,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -21583,7 +21596,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>429</v>
       </c>
@@ -21607,15 +21620,15 @@
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
     <col min="2" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
+    <col min="5" max="5" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="16" thickBot="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -21632,7 +21645,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -21649,7 +21662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -21666,7 +21679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -21683,7 +21696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -21700,7 +21713,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -21717,7 +21730,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -21734,7 +21747,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -21751,7 +21764,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -21768,7 +21781,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -21785,7 +21798,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -21802,7 +21815,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -21819,7 +21832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -21836,7 +21849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -21853,7 +21866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -21870,7 +21883,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -21887,7 +21900,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -21904,7 +21917,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -21921,7 +21934,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -21938,7 +21951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -21955,7 +21968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -21972,7 +21985,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -21989,7 +22002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -22006,7 +22019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>478</v>
       </c>
@@ -22023,7 +22036,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>478</v>
       </c>
@@ -22040,7 +22053,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>478</v>
       </c>
@@ -22057,7 +22070,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>478</v>
       </c>
@@ -22074,7 +22087,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>478</v>
       </c>
@@ -22091,7 +22104,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>478</v>
       </c>
@@ -22108,7 +22121,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>491</v>
       </c>
@@ -22125,7 +22138,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>491</v>
       </c>
@@ -22142,7 +22155,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>491</v>
       </c>
@@ -22159,7 +22172,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>491</v>
       </c>
@@ -22176,7 +22189,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>491</v>
       </c>
@@ -22193,7 +22206,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>491</v>
       </c>
@@ -22210,11 +22223,11 @@
         <v>488</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -22231,11 +22244,11 @@
         <v>490</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>478</v>
       </c>
@@ -22252,7 +22265,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>478</v>
       </c>
@@ -22269,7 +22282,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>478</v>
       </c>
@@ -22286,7 +22299,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>478</v>
       </c>
@@ -22303,7 +22316,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>478</v>
       </c>
@@ -22320,7 +22333,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>478</v>
       </c>
@@ -22337,7 +22350,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>478</v>
       </c>
@@ -22354,7 +22367,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>478</v>
       </c>
@@ -22371,7 +22384,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>478</v>
       </c>
@@ -22388,11 +22401,11 @@
         <v>486</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -22409,7 +22422,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -22426,7 +22439,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>429</v>
       </c>
